--- a/spliced/walkingToRunning/2023-04-03_16-56-33/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_16-56-33/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1822662055492401</v>
+        <v>-1.054504990577698</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.421842098236084</v>
+        <v>-3.490631103515625</v>
       </c>
       <c r="C2" t="n">
-        <v>6.273701667785645</v>
+        <v>0.8201689720153809</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.58828330039978</v>
+        <v>-1.129331469535828</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.849992752075195</v>
+        <v>-6.879757404327393</v>
       </c>
       <c r="C3" t="n">
-        <v>7.787976264953613</v>
+        <v>1.420253753662109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6846656799316406</v>
+        <v>-2.684658765792847</v>
       </c>
       <c r="B4" t="n">
-        <v>-9.072738647460938</v>
+        <v>-0.5505852699279785</v>
       </c>
       <c r="C4" t="n">
-        <v>9.211252212524414</v>
+        <v>8.388395309448242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.054504990577698</v>
+        <v>-5.721604347229004</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.490631103515625</v>
+        <v>7.858576774597168</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8201689720153809</v>
+        <v>6.318061828613281</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.129331469535828</v>
+        <v>1.885133743286133</v>
       </c>
       <c r="B6" t="n">
-        <v>-6.879757404327393</v>
+        <v>-1.666801452636719</v>
       </c>
       <c r="C6" t="n">
-        <v>1.420253753662109</v>
+        <v>13.95527076721191</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.684658765792847</v>
+        <v>4.083763122558594</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.5505852699279785</v>
+        <v>2.682566165924072</v>
       </c>
       <c r="C7" t="n">
-        <v>8.388395309448242</v>
+        <v>5.88519811630249</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.721604347229004</v>
+        <v>-37.18881988525391</v>
       </c>
       <c r="B8" t="n">
-        <v>7.858576774597168</v>
+        <v>-16.31022262573242</v>
       </c>
       <c r="C8" t="n">
-        <v>6.318061828613281</v>
+        <v>18.38444519042969</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.885133743286133</v>
+        <v>-4.98013973236084</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.666801452636719</v>
+        <v>3.857727766036987</v>
       </c>
       <c r="C9" t="n">
-        <v>13.95527076721191</v>
+        <v>4.614824771881104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.083763122558594</v>
+        <v>44.95419311523438</v>
       </c>
       <c r="B10" t="n">
-        <v>2.682566165924072</v>
+        <v>-55.06259918212891</v>
       </c>
       <c r="C10" t="n">
-        <v>5.88519811630249</v>
+        <v>-3.026922225952148</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-37.18881988525391</v>
+        <v>43.95158767700195</v>
       </c>
       <c r="B11" t="n">
-        <v>-16.31022262573242</v>
+        <v>-54.27328491210938</v>
       </c>
       <c r="C11" t="n">
-        <v>18.38444519042969</v>
+        <v>-3.213864326477051</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-4.98013973236084</v>
+        <v>-9.904374122619627</v>
       </c>
       <c r="B12" t="n">
-        <v>3.857727766036987</v>
+        <v>6.515621185302734</v>
       </c>
       <c r="C12" t="n">
-        <v>4.614824771881104</v>
+        <v>11.26030445098877</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>44.95419311523438</v>
+        <v>-2.358283281326294</v>
       </c>
       <c r="B13" t="n">
-        <v>-55.06259918212891</v>
+        <v>-57.28740692138672</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.026922225952148</v>
+        <v>-2.653994083404541</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43.95158767700195</v>
+        <v>-12.77801513671875</v>
       </c>
       <c r="B14" t="n">
-        <v>-54.27328491210938</v>
+        <v>3.484463453292847</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.213864326477051</v>
+        <v>8.297730445861816</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-9.904374122619627</v>
+        <v>-23.53105735778809</v>
       </c>
       <c r="B15" t="n">
-        <v>6.515621185302734</v>
+        <v>3.71211051940918</v>
       </c>
       <c r="C15" t="n">
-        <v>11.26030445098877</v>
+        <v>4.357646942138672</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-2.358283281326294</v>
+        <v>-33.88568878173828</v>
       </c>
       <c r="B16" t="n">
-        <v>-57.28740692138672</v>
+        <v>-50.99709701538086</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.653994083404541</v>
+        <v>13.22272872924805</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-12.77801513671875</v>
+        <v>-24.3600902557373</v>
       </c>
       <c r="B17" t="n">
-        <v>3.484463453292847</v>
+        <v>2.738663196563721</v>
       </c>
       <c r="C17" t="n">
-        <v>8.297730445861816</v>
+        <v>11.53956317901611</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-23.53105735778809</v>
+        <v>18.28820610046387</v>
       </c>
       <c r="B18" t="n">
-        <v>3.71211051940918</v>
+        <v>-0.5376138687133789</v>
       </c>
       <c r="C18" t="n">
-        <v>4.357646942138672</v>
+        <v>9.498839378356934</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-33.88568878173828</v>
+        <v>-62.44527816772461</v>
       </c>
       <c r="B19" t="n">
-        <v>-50.99709701538086</v>
+        <v>-7.982970237731934</v>
       </c>
       <c r="C19" t="n">
-        <v>13.22272872924805</v>
+        <v>-32.66093826293945</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-24.3600902557373</v>
+        <v>23.0417537689209</v>
       </c>
       <c r="B20" t="n">
-        <v>2.738663196563721</v>
+        <v>16.5068416595459</v>
       </c>
       <c r="C20" t="n">
-        <v>11.53956317901611</v>
+        <v>-16.63084411621094</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>18.28820610046387</v>
+        <v>-5.877625465393066</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.5376138687133789</v>
+        <v>-9.525984764099119</v>
       </c>
       <c r="C21" t="n">
-        <v>9.498839378356934</v>
+        <v>-0.1709146499633789</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.5468623042106628</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-5.408160209655762</v>
+      </c>
+      <c r="C22" t="n">
+        <v>43.39143753051758</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-6.48110294342041</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21.88984298706055</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9.76063346862793</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>19.5135498046875</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-70.08018493652344</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22.09575080871582</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-37.2692756652832</v>
+      </c>
+      <c r="B25" t="n">
+        <v>22.71374130249023</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-6.724684715270996</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-22.65700340270996</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.547637939453125</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-17.0935115814209</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>78.31330871582031</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-70.41346740722656</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-6.543253421783447</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-3.919276475906372</v>
+      </c>
+      <c r="B28" t="n">
+        <v>13.1894645690918</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.611269950866699</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>41.53395843505859</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-10.51663017272949</v>
+      </c>
+      <c r="C29" t="n">
+        <v>21.93678855895996</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>19.39011192321777</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-10.6725959777832</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-12.10480403900146</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10.54305171966553</v>
+      </c>
+      <c r="B31" t="n">
+        <v>18.1186752319336</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-10.15065765380859</v>
       </c>
     </row>
   </sheetData>
